--- a/data/IT-CF-00514490010/ocds.xlsx
+++ b/data/IT-CF-00514490010/ocds.xlsx
@@ -37016,7 +37016,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -37351,7 +37351,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -37418,7 +37418,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -37552,7 +37552,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -37619,7 +37619,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -37686,7 +37686,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -37954,7 +37954,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -38222,7 +38222,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -38356,7 +38356,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -38557,7 +38557,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -38624,7 +38624,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -38758,7 +38758,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -38959,7 +38959,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -39093,7 +39093,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -39227,7 +39227,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -39294,7 +39294,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -39696,7 +39696,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -40299,7 +40299,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -40366,7 +40366,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -40433,7 +40433,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -40902,7 +40902,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -41438,7 +41438,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -41773,7 +41773,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -42041,7 +42041,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -42175,7 +42175,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -42510,7 +42510,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -43180,7 +43180,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -43314,7 +43314,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -43850,7 +43850,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -43984,7 +43984,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -44118,7 +44118,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -44587,7 +44587,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -44989,7 +44989,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -45056,7 +45056,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -45793,7 +45793,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -45994,7 +45994,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -46128,7 +46128,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -46195,7 +46195,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -46262,7 +46262,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -46530,7 +46530,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -46597,7 +46597,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -46664,7 +46664,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -46731,7 +46731,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -46798,7 +46798,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -46865,7 +46865,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -46932,7 +46932,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -46999,7 +46999,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -47066,7 +47066,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -47133,7 +47133,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -47468,7 +47468,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -47602,7 +47602,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -47669,7 +47669,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">

--- a/data/IT-CF-00514490010/ocds.xlsx
+++ b/data/IT-CF-00514490010/ocds.xlsx
@@ -36909,7 +36909,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -36976,7 +36976,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -37043,7 +37043,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -37110,7 +37110,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -37177,7 +37177,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -37244,7 +37244,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -37311,7 +37311,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -37378,7 +37378,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -37445,7 +37445,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -37512,7 +37512,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -37579,7 +37579,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -37646,7 +37646,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -37713,7 +37713,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -37780,7 +37780,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -37847,7 +37847,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -37914,7 +37914,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -37981,7 +37981,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -38048,7 +38048,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -38115,7 +38115,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -38182,7 +38182,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -38249,7 +38249,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -38316,7 +38316,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -38383,7 +38383,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -38450,7 +38450,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -38517,7 +38517,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -38584,7 +38584,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -38651,7 +38651,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -38718,7 +38718,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -38785,7 +38785,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -38852,7 +38852,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -38919,7 +38919,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -38986,7 +38986,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -39053,7 +39053,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -39120,7 +39120,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -39187,7 +39187,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -39254,7 +39254,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -39321,7 +39321,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -39388,7 +39388,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -39455,7 +39455,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -39522,7 +39522,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -39589,7 +39589,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -39656,7 +39656,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -39723,7 +39723,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -39790,7 +39790,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -39857,7 +39857,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -39924,7 +39924,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -39991,7 +39991,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -40058,7 +40058,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -40125,7 +40125,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -40192,7 +40192,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -40259,7 +40259,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -40326,7 +40326,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -40393,7 +40393,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -40460,7 +40460,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -40594,7 +40594,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -40661,7 +40661,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -40728,7 +40728,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -40795,7 +40795,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -40862,7 +40862,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -40929,7 +40929,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -40996,7 +40996,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -41063,7 +41063,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -41130,7 +41130,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -41197,7 +41197,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -41264,7 +41264,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -41331,7 +41331,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -41398,7 +41398,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -41465,7 +41465,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -41532,7 +41532,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -41599,7 +41599,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -41666,7 +41666,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -41733,7 +41733,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -41800,7 +41800,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -41934,7 +41934,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -42001,7 +42001,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -42068,7 +42068,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -42135,7 +42135,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -42202,7 +42202,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -42269,7 +42269,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -42336,7 +42336,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -42403,7 +42403,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -42470,7 +42470,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -42537,7 +42537,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -42604,7 +42604,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -42671,7 +42671,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -42738,7 +42738,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -42805,7 +42805,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -42872,7 +42872,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -42939,7 +42939,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -43006,7 +43006,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -43073,7 +43073,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -43140,7 +43140,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -43207,7 +43207,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -43274,7 +43274,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -43341,7 +43341,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -43408,7 +43408,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -43475,7 +43475,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -43542,7 +43542,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -43609,7 +43609,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -43676,7 +43676,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -43743,7 +43743,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -43810,7 +43810,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -43877,7 +43877,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -43944,7 +43944,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -44011,7 +44011,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -44078,7 +44078,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -44145,7 +44145,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -44212,7 +44212,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -44279,7 +44279,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -44346,7 +44346,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -44413,7 +44413,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -44480,7 +44480,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -44547,7 +44547,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -44614,7 +44614,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -44681,7 +44681,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -44748,7 +44748,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -44815,7 +44815,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -44882,7 +44882,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -44949,7 +44949,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -45016,7 +45016,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -45083,7 +45083,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -45150,7 +45150,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -45217,7 +45217,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -45284,7 +45284,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -45351,7 +45351,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -45418,7 +45418,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -45485,7 +45485,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -45552,7 +45552,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -45619,7 +45619,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -45686,7 +45686,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -45753,7 +45753,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -45820,7 +45820,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -45887,7 +45887,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -45954,7 +45954,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -46021,7 +46021,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -46088,7 +46088,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -46155,7 +46155,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -46222,7 +46222,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -46289,7 +46289,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -46356,7 +46356,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -46423,7 +46423,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -46490,7 +46490,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -46557,7 +46557,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -46624,7 +46624,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -46691,7 +46691,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -46758,7 +46758,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -46825,7 +46825,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -46892,7 +46892,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -46959,7 +46959,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -47026,7 +47026,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -47093,7 +47093,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -47160,7 +47160,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -47227,7 +47227,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -47294,7 +47294,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -47361,7 +47361,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -47428,7 +47428,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -47495,7 +47495,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -47562,7 +47562,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -47629,7 +47629,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -47696,7 +47696,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -47763,7 +47763,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -47830,7 +47830,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -47897,7 +47897,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -47964,7 +47964,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -48031,7 +48031,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -48098,7 +48098,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -48165,7 +48165,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
